--- a/SuppXLS/Scen_B_SYS_Additional_Assumptions.xlsx
+++ b/SuppXLS/Scen_B_SYS_Additional_Assumptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TIMES-models\TIM\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A0A0BF-8B01-4296-9DB1-AD7DC804AAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E053D17-9852-4EA4-84B4-C08A1D38BA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8010" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="29" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="161">
   <si>
     <t>UC_N</t>
   </si>
@@ -444,9 +444,6 @@
     <t>IMPBIO*1G*2,IMPBIO*1G*3,IMPBIO*1G*4</t>
   </si>
   <si>
-    <t>IMPH2G</t>
-  </si>
-  <si>
     <t>P*OCE*</t>
   </si>
   <si>
@@ -654,7 +651,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -971,7 +968,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1390,9 +1387,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1430,9 +1427,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1465,26 +1462,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1517,26 +1497,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1715,20 +1678,20 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="1" max="4" width="21.73046875" customWidth="1"/>
+    <col min="5" max="6" width="14.1328125" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" customWidth="1"/>
+    <col min="8" max="10" width="8.1328125" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" customWidth="1"/>
+    <col min="12" max="12" width="8.1328125" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.3984375" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="21"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -1756,7 +1719,7 @@
       <c r="Y1" s="22"/>
       <c r="Z1" s="22"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1784,7 +1747,7 @@
       <c r="Y2" s="22"/>
       <c r="Z2" s="22"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -1812,7 +1775,7 @@
       <c r="Y3" s="22"/>
       <c r="Z3" s="22"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -1840,7 +1803,7 @@
       <c r="Y4" s="22"/>
       <c r="Z4" s="22"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -1868,7 +1831,7 @@
       <c r="Y5" s="22"/>
       <c r="Z5" s="22"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -1896,7 +1859,7 @@
       <c r="Y6" s="22"/>
       <c r="Z6" s="22"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -1924,7 +1887,7 @@
       <c r="Y7" s="22"/>
       <c r="Z7" s="22"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -1952,7 +1915,7 @@
       <c r="Y8" s="22"/>
       <c r="Z8" s="22"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -1980,7 +1943,7 @@
       <c r="Y9" s="22"/>
       <c r="Z9" s="22"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -2008,7 +1971,7 @@
       <c r="Y10" s="22"/>
       <c r="Z10" s="22"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -2036,7 +1999,7 @@
       <c r="Y11" s="22"/>
       <c r="Z11" s="22"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -2064,7 +2027,7 @@
       <c r="Y12" s="22"/>
       <c r="Z12" s="22"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -2092,7 +2055,7 @@
       <c r="Y13" s="22"/>
       <c r="Z13" s="22"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -2120,7 +2083,7 @@
       <c r="Y14" s="22"/>
       <c r="Z14" s="22"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -2148,9 +2111,9 @@
       <c r="Y15" s="22"/>
       <c r="Z15" s="22"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -2178,7 +2141,7 @@
       <c r="Y16" s="22"/>
       <c r="Z16" s="22"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -2206,7 +2169,7 @@
       <c r="Y17" s="22"/>
       <c r="Z17" s="22"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -2234,9 +2197,9 @@
       <c r="Y18" s="22"/>
       <c r="Z18" s="22"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="38" t="s">
         <v>86</v>
@@ -2266,12 +2229,12 @@
       <c r="Y19" s="22"/>
       <c r="Z19" s="22"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
@@ -2298,12 +2261,12 @@
       <c r="Y20" s="22"/>
       <c r="Z20" s="22"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
@@ -2330,7 +2293,7 @@
       <c r="Y21" s="22"/>
       <c r="Z21" s="22"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="28"/>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -2358,12 +2321,12 @@
       <c r="Y22" s="22"/>
       <c r="Z22" s="22"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -2390,10 +2353,10 @@
       <c r="Y23" s="22"/>
       <c r="Z23" s="22"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="28"/>
       <c r="B24" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
@@ -2420,7 +2383,7 @@
       <c r="Y24" s="22"/>
       <c r="Z24" s="22"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="28"/>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
@@ -2448,12 +2411,12 @@
       <c r="Y25" s="22"/>
       <c r="Z25" s="22"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
@@ -2480,7 +2443,7 @@
       <c r="Y26" s="22"/>
       <c r="Z26" s="22"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="28"/>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
@@ -2508,7 +2471,7 @@
       <c r="Y27" s="22"/>
       <c r="Z27" s="22"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="28"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -2536,9 +2499,9 @@
       <c r="Y28" s="22"/>
       <c r="Z28" s="22"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B29" s="32">
         <v>1</v>
@@ -2568,12 +2531,12 @@
       <c r="Y29" s="22"/>
       <c r="Z29" s="22"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="40" t="s">
         <v>126</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>127</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -2600,12 +2563,12 @@
       <c r="Y30" s="22"/>
       <c r="Z30" s="22"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="38" t="s">
         <v>128</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>129</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
@@ -2632,10 +2595,10 @@
       <c r="Y31" s="22"/>
       <c r="Z31" s="22"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="34"/>
       <c r="B32" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
@@ -2662,7 +2625,7 @@
       <c r="Y32" s="22"/>
       <c r="Z32" s="22"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -2690,7 +2653,7 @@
       <c r="Y33" s="22"/>
       <c r="Z33" s="22"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -2718,7 +2681,7 @@
       <c r="Y34" s="22"/>
       <c r="Z34" s="22"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -2746,7 +2709,7 @@
       <c r="Y35" s="22"/>
       <c r="Z35" s="22"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -2774,7 +2737,7 @@
       <c r="Y36" s="22"/>
       <c r="Z36" s="22"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -2802,7 +2765,7 @@
       <c r="Y37" s="22"/>
       <c r="Z37" s="22"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -2830,7 +2793,7 @@
       <c r="Y38" s="22"/>
       <c r="Z38" s="22"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -2858,7 +2821,7 @@
       <c r="Y39" s="22"/>
       <c r="Z39" s="22"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -2886,7 +2849,7 @@
       <c r="Y40" s="22"/>
       <c r="Z40" s="22"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -2914,7 +2877,7 @@
       <c r="Y41" s="22"/>
       <c r="Z41" s="22"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -2942,7 +2905,7 @@
       <c r="Y42" s="22"/>
       <c r="Z42" s="22"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -2970,7 +2933,7 @@
       <c r="Y43" s="22"/>
       <c r="Z43" s="22"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -2998,7 +2961,7 @@
       <c r="Y44" s="22"/>
       <c r="Z44" s="22"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -3026,7 +2989,7 @@
       <c r="Y45" s="22"/>
       <c r="Z45" s="22"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -3054,7 +3017,7 @@
       <c r="Y46" s="22"/>
       <c r="Z46" s="22"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -3082,7 +3045,7 @@
       <c r="Y47" s="22"/>
       <c r="Z47" s="22"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -3110,7 +3073,7 @@
       <c r="Y48" s="22"/>
       <c r="Z48" s="22"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -3138,7 +3101,7 @@
       <c r="Y49" s="22"/>
       <c r="Z49" s="22"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -3166,7 +3129,7 @@
       <c r="Y50" s="22"/>
       <c r="Z50" s="22"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -3194,7 +3157,7 @@
       <c r="Y51" s="22"/>
       <c r="Z51" s="22"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -3222,7 +3185,7 @@
       <c r="Y52" s="22"/>
       <c r="Z52" s="22"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -3250,7 +3213,7 @@
       <c r="Y53" s="22"/>
       <c r="Z53" s="22"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" s="22"/>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
@@ -3278,7 +3241,7 @@
       <c r="Y54" s="22"/>
       <c r="Z54" s="22"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
@@ -3306,7 +3269,7 @@
       <c r="Y55" s="22"/>
       <c r="Z55" s="22"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -3334,7 +3297,7 @@
       <c r="Y56" s="22"/>
       <c r="Z56" s="22"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" s="22"/>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
@@ -3362,7 +3325,7 @@
       <c r="Y57" s="22"/>
       <c r="Z57" s="22"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
@@ -3390,7 +3353,7 @@
       <c r="Y58" s="22"/>
       <c r="Z58" s="22"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
@@ -3418,7 +3381,7 @@
       <c r="Y59" s="22"/>
       <c r="Z59" s="22"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -3446,7 +3409,7 @@
       <c r="Y60" s="22"/>
       <c r="Z60" s="22"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
@@ -3474,7 +3437,7 @@
       <c r="Y61" s="22"/>
       <c r="Z61" s="22"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -3502,7 +3465,7 @@
       <c r="Y62" s="22"/>
       <c r="Z62" s="22"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" s="22"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -3530,7 +3493,7 @@
       <c r="Y63" s="22"/>
       <c r="Z63" s="22"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" s="22"/>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
@@ -3558,7 +3521,7 @@
       <c r="Y64" s="22"/>
       <c r="Z64" s="22"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" s="22"/>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
@@ -3586,7 +3549,7 @@
       <c r="Y65" s="22"/>
       <c r="Z65" s="22"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -3614,7 +3577,7 @@
       <c r="Y66" s="22"/>
       <c r="Z66" s="22"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" s="22"/>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
@@ -3642,7 +3605,7 @@
       <c r="Y67" s="22"/>
       <c r="Z67" s="22"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" s="22"/>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
@@ -3670,7 +3633,7 @@
       <c r="Y68" s="22"/>
       <c r="Z68" s="22"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" s="22"/>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
@@ -3698,7 +3661,7 @@
       <c r="Y69" s="22"/>
       <c r="Z69" s="22"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
@@ -3726,7 +3689,7 @@
       <c r="Y70" s="22"/>
       <c r="Z70" s="22"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -3754,7 +3717,7 @@
       <c r="Y71" s="22"/>
       <c r="Z71" s="22"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" s="22"/>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
@@ -3782,7 +3745,7 @@
       <c r="Y72" s="22"/>
       <c r="Z72" s="22"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
@@ -3810,7 +3773,7 @@
       <c r="Y73" s="22"/>
       <c r="Z73" s="22"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -3838,7 +3801,7 @@
       <c r="Y74" s="22"/>
       <c r="Z74" s="22"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -3866,7 +3829,7 @@
       <c r="Y75" s="22"/>
       <c r="Z75" s="22"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
@@ -3894,7 +3857,7 @@
       <c r="Y76" s="22"/>
       <c r="Z76" s="22"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
@@ -3922,7 +3885,7 @@
       <c r="Y77" s="22"/>
       <c r="Z77" s="22"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -3950,7 +3913,7 @@
       <c r="Y78" s="22"/>
       <c r="Z78" s="22"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -3978,7 +3941,7 @@
       <c r="Y79" s="22"/>
       <c r="Z79" s="22"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
@@ -4006,7 +3969,7 @@
       <c r="Y80" s="22"/>
       <c r="Z80" s="22"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -4034,7 +3997,7 @@
       <c r="Y81" s="22"/>
       <c r="Z81" s="22"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -4062,7 +4025,7 @@
       <c r="Y82" s="22"/>
       <c r="Z82" s="22"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" s="22"/>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
@@ -4090,7 +4053,7 @@
       <c r="Y83" s="22"/>
       <c r="Z83" s="22"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
@@ -4118,7 +4081,7 @@
       <c r="Y84" s="22"/>
       <c r="Z84" s="22"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A85" s="22"/>
       <c r="B85" s="22"/>
       <c r="C85" s="22"/>
@@ -4146,7 +4109,7 @@
       <c r="Y85" s="22"/>
       <c r="Z85" s="22"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="22"/>
       <c r="B86" s="22"/>
       <c r="C86" s="22"/>
@@ -4174,7 +4137,7 @@
       <c r="Y86" s="22"/>
       <c r="Z86" s="22"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" s="22"/>
       <c r="B87" s="22"/>
       <c r="C87" s="22"/>
@@ -4202,7 +4165,7 @@
       <c r="Y87" s="22"/>
       <c r="Z87" s="22"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" s="22"/>
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
@@ -4230,7 +4193,7 @@
       <c r="Y88" s="22"/>
       <c r="Z88" s="22"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A89" s="22"/>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
@@ -4258,7 +4221,7 @@
       <c r="Y89" s="22"/>
       <c r="Z89" s="22"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A90" s="22"/>
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
@@ -4286,7 +4249,7 @@
       <c r="Y90" s="22"/>
       <c r="Z90" s="22"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A91" s="22"/>
       <c r="B91" s="22"/>
       <c r="C91" s="22"/>
@@ -4314,7 +4277,7 @@
       <c r="Y91" s="22"/>
       <c r="Z91" s="22"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A92" s="22"/>
       <c r="B92" s="22"/>
       <c r="C92" s="22"/>
@@ -4342,7 +4305,7 @@
       <c r="Y92" s="22"/>
       <c r="Z92" s="22"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A93" s="22"/>
       <c r="B93" s="22"/>
       <c r="C93" s="22"/>
@@ -4370,7 +4333,7 @@
       <c r="Y93" s="22"/>
       <c r="Z93" s="22"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A94" s="22"/>
       <c r="B94" s="22"/>
       <c r="C94" s="22"/>
@@ -4398,7 +4361,7 @@
       <c r="Y94" s="22"/>
       <c r="Z94" s="22"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A95" s="22"/>
       <c r="B95" s="22"/>
       <c r="C95" s="22"/>
@@ -4426,7 +4389,7 @@
       <c r="Y95" s="22"/>
       <c r="Z95" s="22"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A96" s="22"/>
       <c r="B96" s="22"/>
       <c r="C96" s="22"/>
@@ -4454,7 +4417,7 @@
       <c r="Y96" s="22"/>
       <c r="Z96" s="22"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A97" s="22"/>
       <c r="B97" s="22"/>
       <c r="C97" s="22"/>
@@ -4482,7 +4445,7 @@
       <c r="Y97" s="22"/>
       <c r="Z97" s="22"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A98" s="22"/>
       <c r="B98" s="22"/>
       <c r="C98" s="22"/>
@@ -4510,7 +4473,7 @@
       <c r="Y98" s="22"/>
       <c r="Z98" s="22"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" s="22"/>
       <c r="B99" s="22"/>
       <c r="C99" s="22"/>
@@ -4567,39 +4530,39 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1328125" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" customWidth="1"/>
+    <col min="3" max="3" width="3.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.59765625" customWidth="1"/>
+    <col min="25" max="25" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1328125" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C3" s="11" t="str" cm="1">
         <f t="array" ref="C3">IF(LEFT(INDEX(C5:C7,$A$4),1)&lt;&gt;"*",INDEX(C5:C7,$A$4),"")</f>
         <v>IE</v>
@@ -4713,12 +4676,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -4833,7 +4796,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -4950,7 +4913,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -5067,7 +5030,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
@@ -5075,7 +5038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
         <v>25</v>
       </c>
@@ -5083,7 +5046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
         <v>27</v>
       </c>
@@ -5091,7 +5054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>29</v>
       </c>
@@ -5099,7 +5062,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
         <v>31</v>
       </c>
@@ -5107,7 +5070,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>33</v>
       </c>
@@ -5115,7 +5078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A16" s="15" t="s">
         <v>35</v>
       </c>
@@ -5123,7 +5086,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
         <v>37</v>
       </c>
@@ -5131,7 +5094,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
         <v>39</v>
       </c>
@@ -5139,7 +5102,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
         <v>41</v>
       </c>
@@ -5147,7 +5110,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="15" t="s">
         <v>43</v>
       </c>
@@ -5155,7 +5118,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
         <v>45</v>
       </c>
@@ -5163,7 +5126,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="15" t="s">
         <v>47</v>
       </c>
@@ -5171,7 +5134,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="15" t="s">
         <v>49</v>
       </c>
@@ -5179,7 +5142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="15" t="s">
         <v>51</v>
       </c>
@@ -5187,7 +5150,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="15" t="s">
         <v>53</v>
       </c>
@@ -5195,7 +5158,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="15" t="s">
         <v>55</v>
       </c>
@@ -5203,7 +5166,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="15" t="s">
         <v>57</v>
       </c>
@@ -5211,7 +5174,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="15" t="s">
         <v>59</v>
       </c>
@@ -5219,7 +5182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="15" t="s">
         <v>61</v>
       </c>
@@ -5227,7 +5190,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="15" t="s">
         <v>63</v>
       </c>
@@ -5235,7 +5198,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="15" t="s">
         <v>65</v>
       </c>
@@ -5243,7 +5206,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
         <v>67</v>
       </c>
@@ -5251,7 +5214,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="15" t="s">
         <v>69</v>
       </c>
@@ -5259,7 +5222,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="15" t="s">
         <v>71</v>
       </c>
@@ -5267,7 +5230,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="15" t="s">
         <v>73</v>
       </c>
@@ -5275,7 +5238,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="15" t="s">
         <v>75</v>
       </c>
@@ -5283,7 +5246,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="16" t="s">
         <v>77</v>
       </c>
@@ -5329,35 +5292,35 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="str">
         <f>"~UC_Sets: R_E: " &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C2:D2)</f>
         <v xml:space="preserve">~UC_Sets: R_E: </v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="G4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -5386,12 +5349,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B6" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>148</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>149</v>
       </c>
       <c r="F6" s="19">
         <v>2030</v>
@@ -5406,10 +5369,10 @@
         <v>5.5</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B7" s="19"/>
       <c r="D7" s="20"/>
       <c r="F7" s="19">
@@ -5422,27 +5385,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B8" s="19"/>
       <c r="D8" s="20"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9" s="19"/>
       <c r="D9" s="20"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>82</v>
       </c>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
@@ -5473,7 +5436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
         <v>84</v>
       </c>
@@ -5488,10 +5451,10 @@
         <v>83</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>88</v>
       </c>
@@ -5511,13 +5474,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="L13" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>88</v>
       </c>
@@ -5537,15 +5500,15 @@
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="8" t="s">
         <v>12</v>
       </c>
@@ -5576,7 +5539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
         <v>78</v>
       </c>
@@ -5588,10 +5551,10 @@
         <v>2035</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
         <v>78</v>
       </c>
@@ -5603,13 +5566,13 @@
         <v>2026</v>
       </c>
       <c r="I20" t="s">
+        <v>134</v>
+      </c>
+      <c r="L20" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="L20" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
         <v>78</v>
       </c>
@@ -5621,13 +5584,13 @@
         <v>2100</v>
       </c>
       <c r="I21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
         <v>78</v>
       </c>
@@ -5639,13 +5602,13 @@
         <v>2100</v>
       </c>
       <c r="I22" t="s">
+        <v>138</v>
+      </c>
+      <c r="L22" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="L22" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D23" t="s">
         <v>78</v>
       </c>
@@ -5657,13 +5620,13 @@
         <v>2100</v>
       </c>
       <c r="I23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
         <v>78</v>
       </c>
@@ -5675,13 +5638,13 @@
         <v>2100</v>
       </c>
       <c r="I24" t="s">
+        <v>142</v>
+      </c>
+      <c r="L24" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="L24" s="17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
         <v>78</v>
       </c>
@@ -5696,7 +5659,7 @@
         <v>83</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5713,13 +5676,13 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
@@ -5727,7 +5690,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
@@ -5755,10 +5718,10 @@
         <v>3</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
         <v>78</v>
       </c>
@@ -5769,7 +5732,7 @@
         <v>2019</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J4">
         <v>2020</v>
@@ -5783,50 +5746,50 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.73046875" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.86328125" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.28515625" customWidth="1"/>
-    <col min="12" max="12" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.265625" customWidth="1"/>
+    <col min="12" max="12" width="44.73046875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="str">
         <f>"~UC_Sets: R_E: " &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3:D3)</f>
         <v>~UC_Sets: R_E: IE,National</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -5849,7 +5812,7 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>17</v>
@@ -5858,12 +5821,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6" s="19">
         <v>2025</v>
@@ -5878,10 +5841,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="19"/>
       <c r="D7" s="20"/>
       <c r="G7" s="19">
@@ -5894,12 +5857,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="19"/>
       <c r="G8" s="19">
@@ -5915,14 +5878,14 @@
         <v>7.3689999999999998</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9" s="19"/>
       <c r="G9" s="19">
@@ -5937,11 +5900,11 @@
       </c>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" s="19"/>
       <c r="G10" s="19">
@@ -5956,11 +5919,11 @@
       </c>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="19"/>
       <c r="G11" s="19">
@@ -5975,11 +5938,11 @@
       </c>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" s="19"/>
       <c r="G12" s="19">
@@ -5994,7 +5957,7 @@
       </c>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="20"/>
@@ -6005,7 +5968,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
@@ -6016,12 +5979,12 @@
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="H15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
@@ -6041,10 +6004,10 @@
         <v>9</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>17</v>
@@ -6053,9 +6016,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B17" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -6065,22 +6028,22 @@
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K17" s="37"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B18" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="E18" t="s">
         <v>159</v>
-      </c>
-      <c r="E18" t="s">
-        <v>160</v>
       </c>
       <c r="F18" s="19">
         <v>2022</v>
@@ -6089,7 +6052,7 @@
         <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I18" s="19">
         <v>1</v>
@@ -6098,27 +6061,27 @@
         <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M18" s="19"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B19" s="19"/>
       <c r="C19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F19" s="19">
         <v>2022</v>
       </c>
       <c r="G19" s="19"/>
       <c r="H19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I19" s="19">
         <v>-1</v>
@@ -6126,7 +6089,7 @@
       <c r="J19" s="19"/>
       <c r="M19" s="19"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B20" s="19"/>
       <c r="D20" s="20"/>
       <c r="F20">
@@ -6142,28 +6105,28 @@
       </c>
       <c r="M20" s="19"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B21" s="19"/>
       <c r="D21" s="20"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="M21" s="19"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B22" s="19"/>
       <c r="D22" s="20"/>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="M22" s="19"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B23" s="19"/>
       <c r="D23" s="20"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="M23" s="19"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="20"/>
@@ -6171,7 +6134,7 @@
       <c r="H24" s="19"/>
       <c r="J24" s="19"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B26" s="6" t="s">
         <v>82</v>
       </c>
@@ -6179,7 +6142,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="8" t="s">
         <v>12</v>
       </c>
@@ -6210,7 +6173,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>81</v>
       </c>
@@ -6237,7 +6200,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C29" t="str">
         <f>C28</f>
         <v>UP</v>
@@ -6261,14 +6224,14 @@
         <v>IMPBIO*1G*2,IMPBIO*1G*3,IMPBIO*1G*4</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B32" s="6" t="s">
         <v>82</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="8" t="s">
         <v>12</v>
       </c>
@@ -6296,7 +6259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>81</v>
       </c>
@@ -6317,16 +6280,16 @@
         <v>92</v>
       </c>
       <c r="I34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C35" t="str">
         <f>C34</f>
         <v>UP</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" ref="D35:D37" si="1">D34</f>
+        <f t="shared" ref="D35" si="1">D34</f>
         <v>ACT_BND</v>
       </c>
       <c r="E35">
@@ -6347,101 +6310,56 @@
         <v>*GRID</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36">
-        <v>2030</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <f>F36</f>
-        <v>0</v>
-      </c>
-      <c r="I36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C37" t="str">
-        <f>C36</f>
-        <v>UP</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="1"/>
-        <v>ACT_BND</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>5</v>
-      </c>
-      <c r="G37">
-        <f>F37</f>
-        <v>5</v>
-      </c>
-      <c r="I37" t="str">
-        <f>I36</f>
-        <v>IMPH2G</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B38" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-    </row>
-    <row r="41" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="8" t="s">
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B39" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D39" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E39" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F41" s="9" t="str">
+      <c r="F39" s="9" t="str">
         <f>IF(Regions!C$3&lt;&gt;"",Regions!C$3,"*")</f>
         <v>IE</v>
       </c>
-      <c r="G41" s="9" t="str">
+      <c r="G39" s="9" t="str">
         <f>IF(Regions!D$3&lt;&gt;"",Regions!D$3,"*")</f>
         <v>National</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H39" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="I39" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D40" t="s">
         <v>78</v>
       </c>
-      <c r="F42">
+      <c r="F40">
         <v>2018</v>
       </c>
-      <c r="G42">
+      <c r="G40">
         <v>2018</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I40" t="s">
         <v>79</v>
       </c>
-      <c r="M42" s="17" t="s">
+      <c r="M40" s="17" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6459,20 +6377,20 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>82</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
@@ -6500,7 +6418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>81</v>
       </c>
@@ -6518,10 +6436,10 @@
         <v>0.115</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>81</v>
       </c>
@@ -6539,10 +6457,10 @@
         <v>0.115</v>
       </c>
       <c r="I6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>81</v>
       </c>
@@ -6560,10 +6478,10 @@
         <v>0.115</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>81</v>
       </c>
@@ -6581,10 +6499,10 @@
         <v>0.115</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>81</v>
       </c>
@@ -6602,10 +6520,10 @@
         <v>0.115</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>81</v>
       </c>
@@ -6623,10 +6541,10 @@
         <v>0.115</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>81</v>
       </c>
@@ -6644,10 +6562,10 @@
         <v>0.115</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>81</v>
       </c>
@@ -6665,7 +6583,7 @@
         <v>0.115</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -6682,20 +6600,20 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" customWidth="1"/>
+    <col min="6" max="6" width="11.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
@@ -6729,18 +6647,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" t="s">
         <v>104</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" t="s">
         <v>105</v>
-      </c>
-      <c r="I5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K5" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
